--- a/experiments/optics-ajk/simcse/0.3/prediction.xlsx
+++ b/experiments/optics-ajk/simcse/0.3/prediction.xlsx
@@ -458,51 +458,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -518,37 +518,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,47 +608,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,17 +668,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,17 +698,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,27 +718,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,37 +748,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,17 +798,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,27 +818,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,67 +848,67 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,37 +918,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,77 +958,77 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,27 +1038,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,17 +1078,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,17 +1118,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,17 +1148,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,17 +1178,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,97 +1238,97 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,17 +1338,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,17 +1358,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,77 +1378,77 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,37 +1468,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,37 +1508,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,17 +1558,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,17 +1578,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,17 +1598,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,47 +1618,47 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,17 +1668,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,17 +1698,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,27 +1718,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,17 +1748,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,27 +1788,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,57 +1838,57 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,37 +1898,37 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,27 +1938,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,17 +1968,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,27 +1988,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,17 +2068,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,27 +2088,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,37 +2148,37 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,27 +2208,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,37 +2238,37 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,77 +2278,77 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,107 +2368,107 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,167 +2478,167 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,37 +2658,37 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,27 +2698,27 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,17 +2728,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,827 +2748,827 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>42</v>
+        <v>108</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>62</v>
+        <v>113</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,827 +3588,827 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>92</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>92</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>39</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4418,617 +4418,617 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>99</v>
+        <v>41</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>101</v>
+        <v>24</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>108</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>108</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>112</v>
+        <v>14</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>112</v>
+        <v>14</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5038,1217 +5038,1217 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>43</v>
+        <v>125</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>115</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>115</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>116</v>
+        <v>6</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>119</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>119</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>121</v>
+        <v>34</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>46</v>
+        <v>119</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>122</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>122</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>123</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>69</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>69</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -6258,11 +6258,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584">
